--- a/00-01 文档/清单地址.xlsx
+++ b/00-01 文档/清单地址.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -24,11 +24,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>重疾绿通医院清单1347家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://lvtong.healthlink.cn/shanhu-manager/html/JZYL/hospitalList.html?type=ZJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重疾绿通医院清单1347家（旧）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://lvtong.healthlink.cn/shanhu-manager/html/JZYL/hospitalList.html?type=DF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快捷垫付医院清单（旧）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务网络清单入口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://lvtong.healthlink.cn/shanhu-manager/html/careList/serviceIndex.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://lvtong.healthlink.cn/shanhu-manager/html/careList/careCityList.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>照护服务区域列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://lvtong.healthlink.cn/shanhu-manager/html/careList/lvTongHospitalList.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就医绿色通道服务区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://lvtong.healthlink.cn/shanhu-manager/html/careList/ambulanceChargeList.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院前120急救车费用承担</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住院医疗费用垫付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://lvtong.healthlink.cn/shanhu-manager/html/careList/advanceList.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -389,15 +437,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.25" customWidth="1"/>
     <col min="2" max="2" width="88.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -411,18 +459,72 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
 </worksheet>
 </file>